--- a/data/trans_bre/P2A_psíq_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 0,15</t>
+          <t>-3,45; 0,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,27</t>
+          <t>-3,25; 2,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,04</t>
+          <t>-0,59; 3,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-81,86; 238,88</t>
+          <t>-84,27; 220,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 981,36</t>
+          <t>-58,39; 806,33</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,32</t>
+          <t>0,87; 4,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,56</t>
+          <t>-1,56; 1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,88</t>
+          <t>-0,08; 1,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,66</t>
+          <t>-1,92; 2,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,84; —</t>
+          <t>-0,08; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,34; 311,69</t>
+          <t>-73,79; 300,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,1; 168,36</t>
+          <t>-47,39; 190,72</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,27</t>
+          <t>-1,36; 1,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,6</t>
+          <t>-4,11; 1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,61</t>
+          <t>0,26; 2,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,07</t>
+          <t>-1,87; 2,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,38; 175,23</t>
+          <t>-83,95; 185,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,36; 180,34</t>
+          <t>-60,31; 188,18</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,63</t>
+          <t>-2,36; 0,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,41</t>
+          <t>-1,3; 2,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,58</t>
+          <t>-1,27; 4,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,61</t>
+          <t>0,65; 2,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 144,57</t>
+          <t>-38,63; 153,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,89; 295,31</t>
+          <t>-39,66; 246,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,58; —</t>
+          <t>40,85; —</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,93</t>
+          <t>-1,83; 2,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,24</t>
+          <t>-3,74; 3,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,43</t>
+          <t>-0,74; 3,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,25</t>
+          <t>-2,27; 0,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-78,23; 183,79</t>
+          <t>-68,94; 196,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,0</t>
+          <t>-1,97; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,26</t>
+          <t>-1,88; 3,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,59</t>
+          <t>-0,4; 2,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,31</t>
+          <t>-2,89; 2,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,8; 389,07</t>
+          <t>-65,26; 404,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,05; 104,59</t>
+          <t>-53,99; 105,37</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,89</t>
+          <t>-0,98; 0,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,99</t>
+          <t>-1,73; 0,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,33</t>
+          <t>-0,56; 1,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 47,63</t>
+          <t>1,06; 46,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-82,15; 351,07</t>
+          <t>-85,94; 338,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-71,31; 112,57</t>
+          <t>-70,37; 110,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-72,88; —</t>
+          <t>-66,77; 988,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,6; 1671,15</t>
+          <t>19,17; 1665,49</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,28</t>
+          <t>-0,91; 1,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,32</t>
+          <t>-0,21; 2,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,58</t>
+          <t>-0,6; 1,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,32</t>
+          <t>-1,32; 1,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 272,18</t>
+          <t>-61,57; 262,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 540,67</t>
+          <t>-26,13; 543,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 334,34</t>
+          <t>-55,42; 315,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 117,43</t>
+          <t>-48,71; 103,05</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,72</t>
+          <t>-0,31; 0,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,92</t>
+          <t>-0,46; 0,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,21</t>
+          <t>0,07; 1,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 13,43</t>
+          <t>0,4; 12,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 105,85</t>
+          <t>-29,84; 106,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 62,73</t>
+          <t>-21,21; 64,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,81; 162,04</t>
+          <t>2,62; 165,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,77; 726,53</t>
+          <t>14,98; 625,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_psíq_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Provincia-trans_bre.xlsx
@@ -620,12 +620,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,17 +635,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-75,28%</t>
+          <t>-50,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>130,13%</t>
+          <t>157,94%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 0,15</t>
+          <t>-3,06; 0,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-4,55; 2,59</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 2,25</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 4,51</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 2,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 3,95</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,84; 109,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 806,33</t>
+          <t>-57,02; 964,93</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>12,24%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,98</t>
+          <t>-1,95; 2,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,39; 190,72</t>
+          <t>-49,28; 180,94</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,72</t>
+          <t>0,27; 3,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,04</t>
+          <t>-1,8; 2,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,31; 188,18</t>
+          <t>-59,9; 190,39</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-54,99%</t>
+          <t>-33,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>163,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>606,44%</t>
+          <t>500,03%</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,55</t>
+          <t>-2,21; 0,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,53</t>
+          <t>0,02; 3,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,77</t>
+          <t>0,4; 2,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 153,8</t>
+          <t>-13,59; 985,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,85; —</t>
+          <t>12,17; —</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-67,69%</t>
+          <t>-69,89%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,34</t>
+          <t>-2,32; 0,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>-2,76%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,38</t>
+          <t>-2,82; 2,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,99; 105,37</t>
+          <t>-54,19; 106,24</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,91</t>
+          <t>24,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>381,55%</t>
+          <t>637,98%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 46,27</t>
+          <t>0,99; 62,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,17; 1665,49</t>
+          <t>18,47; 2474,09</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>45,52%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,28</t>
+          <t>-0,71; 2,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-48,71; 103,05</t>
+          <t>-35,84; 274,44</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>69,26%</t>
+          <t>71,97%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>149,9%</t>
+          <t>288,49%</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,72</t>
+          <t>-0,26; 0,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1478,17 +1478,17 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,2</t>
+          <t>0,11; 1,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 12,93</t>
+          <t>0,45; 22,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 106,94</t>
+          <t>-26,02; 112,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,62; 165,96</t>
+          <t>4,71; 172,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,98; 625,28</t>
+          <t>18,61; 1231,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_psíq_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,88</t>
+          <t>-3,25; 0,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 2,59</t>
+          <t>-4,81; 2,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,25</t>
+          <t>-3,09; 2,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,51</t>
+          <t>-0,35; 5,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,24 +693,24 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,84; 109,97</t>
+          <t>-75,02; 110,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-84,27; 220,24</t>
+          <t>-80,26; 259,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,02; 964,93</t>
+          <t>-54,86; 1278,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,44</t>
+          <t>0,9; 4,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,41</t>
+          <t>-1,32; 1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,76</t>
+          <t>-0,07; 1,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,78</t>
+          <t>-1,85; 2,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; —</t>
+          <t>-23,4; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,79; 300,6</t>
+          <t>-71,09; 330,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 180,94</t>
+          <t>-49,62; 185,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,22</t>
+          <t>-1,63; 1,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,82</t>
+          <t>-3,95; 1,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,07</t>
+          <t>0,52; 3,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,0</t>
+          <t>-1,76; 1,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,95; 185,22</t>
+          <t>-79,94; 172,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,9; 190,39</t>
+          <t>-56,98; 177,91</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,86</t>
+          <t>-1,94; 1,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 3,76</t>
+          <t>0,1; 4,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,25</t>
+          <t>-1,15; 4,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,36</t>
+          <t>0,24; 2,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 299,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 985,28</t>
+          <t>-22,52; 1063,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 246,81</t>
+          <t>-36,96; 271,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,17; —</t>
+          <t>-48,59; —</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,78</t>
+          <t>-1,85; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,36</t>
+          <t>-3,72; 3,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,37</t>
+          <t>-0,94; 3,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,3</t>
+          <t>-2,13; 0,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,94; 196,97</t>
+          <t>-71,57; 223,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,0</t>
+          <t>-1,82; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,22</t>
+          <t>-1,78; 3,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,84</t>
+          <t>-0,37; 2,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,41</t>
+          <t>-2,74; 2,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,26; 404,89</t>
+          <t>-66,57; 494,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 106,24</t>
+          <t>-52,22; 125,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,87</t>
+          <t>-0,93; 0,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,88</t>
+          <t>-1,65; 0,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,32</t>
+          <t>-0,56; 1,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 62,31</t>
+          <t>1,15; 55,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-85,94; 338,49</t>
+          <t>-80,14; 380,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-70,37; 110,22</t>
+          <t>-71,33; 101,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-66,77; 988,4</t>
+          <t>-74,4; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,47; 2474,09</t>
+          <t>26,64; 2267,68</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,2</t>
+          <t>-1,05; 1,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,34</t>
+          <t>-0,29; 2,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,66</t>
+          <t>-0,62; 1,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,03</t>
+          <t>-0,75; 1,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,57; 262,76</t>
+          <t>-67,69; 306,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 543,95</t>
+          <t>-31,33; 572,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 315,26</t>
+          <t>-52,36; 379,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 274,44</t>
+          <t>-35,2; 245,48</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,78</t>
+          <t>-0,24; 0,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,93</t>
+          <t>-0,51; 0,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,24</t>
+          <t>0,14; 1,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 22,24</t>
+          <t>0,51; 23,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 112,17</t>
+          <t>-23,18; 109,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 64,26</t>
+          <t>-23,3; 64,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,71; 172,69</t>
+          <t>10,55; 179,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,61; 1231,89</t>
+          <t>21,85; 1267,66</t>
         </is>
       </c>
     </row>
